--- a/bioSample/bioSample_hbrown_09.13.19.xlsx
+++ b/bioSample/bioSample_hbrown_09.13.19.xlsx
@@ -64,10 +64,10 @@
     <t xml:space="preserve">H.BROWN</t>
   </si>
   <si>
-    <t xml:space="preserve">Environmental Perturbation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KN99 alpha</t>
+    <t xml:space="preserve">Environmental_Perturbation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KN99_alpha</t>
   </si>
   <si>
     <t xml:space="preserve">CNAG_00000</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">YPD.37C.CO2.cAMP</t>
   </si>
   <si>
-    <t xml:space="preserve">Time Course</t>
+    <t xml:space="preserve">Timecourse</t>
   </si>
   <si>
     <t xml:space="preserve">DMEM.37C.CO2</t>
@@ -229,8 +229,8 @@
   </sheetPr>
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/bioSample/bioSample_hbrown_09.13.19.xlsx
+++ b/bioSample/bioSample_hbrown_09.13.19.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">replicate</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13.19</t>
+    <t xml:space="preserve">09.13.19</t>
   </si>
   <si>
     <t xml:space="preserve">H.BROWN</t>
@@ -113,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -142,12 +142,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -199,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,15 +202,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -239,8 +229,8 @@
   </sheetPr>
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -308,7 +298,7 @@
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -352,11 +342,11 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -387,11 +377,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -422,11 +412,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -457,11 +447,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -492,11 +482,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -527,11 +517,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -562,11 +552,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -597,11 +587,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -632,11 +622,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -667,11 +657,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -702,11 +692,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -737,11 +727,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -772,11 +762,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -807,11 +797,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -842,11 +832,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -877,11 +867,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -912,11 +902,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -947,11 +937,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -982,11 +972,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -1017,11 +1007,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -1052,11 +1042,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -1087,11 +1077,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -1122,11 +1112,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -1157,11 +1147,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -1192,11 +1182,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1227,11 +1217,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -1262,11 +1252,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -1297,11 +1287,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -1332,11 +1322,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -1367,11 +1357,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -1402,11 +1392,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -1437,11 +1427,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -1472,11 +1462,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -1507,11 +1497,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -1542,11 +1532,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="0" t="n">

--- a/bioSample/bioSample_hbrown_09.13.19.xlsx
+++ b/bioSample/bioSample_hbrown_09.13.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="29">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">CNAG_00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
   </si>
   <si>
     <t xml:space="preserve">PBS</t>
@@ -229,8 +232,8 @@
   </sheetPr>
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -294,7 +297,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -313,14 +316,14 @@
       <c r="G2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
+      <c r="H2" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>0</v>
@@ -361,14 +364,14 @@
       <c r="G3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
+      <c r="H3" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>0</v>
@@ -396,14 +399,14 @@
       <c r="G4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
+      <c r="H4" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>30</v>
@@ -431,14 +434,14 @@
       <c r="G5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
+      <c r="H5" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>30</v>
@@ -466,14 +469,14 @@
       <c r="G6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
+      <c r="H6" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>30</v>
@@ -501,14 +504,14 @@
       <c r="G7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
+      <c r="H7" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>30</v>
@@ -536,14 +539,14 @@
       <c r="G8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
+      <c r="H8" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>30</v>
@@ -571,14 +574,14 @@
       <c r="G9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
+      <c r="H9" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>30</v>
@@ -606,14 +609,14 @@
       <c r="G10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
+      <c r="H10" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>90</v>
@@ -641,14 +644,14 @@
       <c r="G11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
+      <c r="H11" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>90</v>
@@ -676,14 +679,14 @@
       <c r="G12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
+      <c r="H12" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>90</v>
@@ -711,14 +714,14 @@
       <c r="G13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>0</v>
+      <c r="H13" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>90</v>
@@ -746,14 +749,14 @@
       <c r="G14" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <v>0</v>
+      <c r="H14" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>90</v>
@@ -781,14 +784,14 @@
       <c r="G15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
+      <c r="H15" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>90</v>
@@ -816,14 +819,14 @@
       <c r="G16" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
+      <c r="H16" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>180</v>
@@ -851,14 +854,14 @@
       <c r="G17" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <v>0</v>
+      <c r="H17" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>180</v>
@@ -886,14 +889,14 @@
       <c r="G18" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="0" t="n">
-        <v>0</v>
+      <c r="H18" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>180</v>
@@ -921,14 +924,14 @@
       <c r="G19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="0" t="n">
-        <v>0</v>
+      <c r="H19" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>180</v>
@@ -956,14 +959,14 @@
       <c r="G20" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
+      <c r="H20" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>180</v>
@@ -991,14 +994,14 @@
       <c r="G21" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="0" t="n">
-        <v>0</v>
+      <c r="H21" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>180</v>
@@ -1026,14 +1029,14 @@
       <c r="G22" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="0" t="n">
-        <v>0</v>
+      <c r="H22" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>1440</v>
@@ -1061,14 +1064,14 @@
       <c r="G23" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="0" t="n">
-        <v>0</v>
+      <c r="H23" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>1440</v>
@@ -1096,14 +1099,14 @@
       <c r="G24" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="0" t="n">
-        <v>0</v>
+      <c r="H24" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>1440</v>
@@ -1131,14 +1134,14 @@
       <c r="G25" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="0" t="n">
-        <v>0</v>
+      <c r="H25" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>1440</v>
@@ -1166,14 +1169,14 @@
       <c r="G26" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="0" t="n">
-        <v>0</v>
+      <c r="H26" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>1440</v>
@@ -1201,14 +1204,14 @@
       <c r="G27" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="0" t="n">
-        <v>0</v>
+      <c r="H27" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>1440</v>
@@ -1228,7 +1231,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>15</v>
@@ -1236,14 +1239,14 @@
       <c r="G28" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="0" t="n">
-        <v>0</v>
+      <c r="H28" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>0</v>
@@ -1263,22 +1266,22 @@
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>0</v>
@@ -1298,7 +1301,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>15</v>
@@ -1306,14 +1309,14 @@
       <c r="G30" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="0" t="n">
-        <v>0</v>
+      <c r="H30" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>30</v>
@@ -1333,22 +1336,22 @@
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>30</v>
@@ -1368,7 +1371,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>15</v>
@@ -1376,14 +1379,14 @@
       <c r="G32" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="0" t="n">
-        <v>0</v>
+      <c r="H32" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>90</v>
@@ -1403,22 +1406,22 @@
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F33" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>90</v>
@@ -1438,7 +1441,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>15</v>
@@ -1446,14 +1449,14 @@
       <c r="G34" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="0" t="n">
-        <v>0</v>
+      <c r="H34" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>180</v>
@@ -1473,22 +1476,22 @@
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>180</v>
@@ -1508,7 +1511,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>15</v>
@@ -1516,14 +1519,14 @@
       <c r="G36" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="0" t="n">
-        <v>0</v>
+      <c r="H36" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>1440</v>
@@ -1543,22 +1546,22 @@
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>1440</v>

--- a/bioSample/bioSample_hbrown_09.13.19.xlsx
+++ b/bioSample/bioSample_hbrown_09.13.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F43DF05-2A1A-9D47-807C-069166E18A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41932D3E-56D4-D542-8097-B685B03B64C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="25">
   <si>
     <t>harvestDate</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>experimentDesign</t>
-  </si>
-  <si>
-    <t>experimentObservations</t>
   </si>
   <si>
     <t>strain</t>
@@ -471,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,10 +480,10 @@
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="5" max="1022" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,15 +505,15 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -528,21 +525,21 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
@@ -551,15 +548,15 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -570,21 +567,21 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
@@ -593,999 +590,996 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="H4">
         <v>30</v>
       </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5">
+        <v>16</v>
+      </c>
+      <c r="H5">
         <v>30</v>
       </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6">
+        <v>17</v>
+      </c>
+      <c r="H6">
         <v>30</v>
       </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
+        <v>18</v>
+      </c>
+      <c r="H7">
         <v>30</v>
       </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8">
+        <v>19</v>
+      </c>
+      <c r="H8">
         <v>30</v>
       </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="H9">
         <v>30</v>
       </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="K10">
+      <c r="H11">
         <v>90</v>
       </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="K11">
+      <c r="H12">
         <v>90</v>
       </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="K12">
+      <c r="H13">
         <v>90</v>
       </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
         <v>19</v>
       </c>
-      <c r="K13">
+      <c r="H14">
         <v>90</v>
       </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14">
-        <v>90</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="H15">
         <v>90</v>
       </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="H16">
         <v>180</v>
       </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="H17">
         <v>180</v>
       </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="H18">
         <v>180</v>
       </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="H19">
         <v>180</v>
       </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="H20">
         <v>180</v>
       </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="H21">
         <v>180</v>
       </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22">
+        <v>15</v>
+      </c>
+      <c r="H22">
         <v>1440</v>
       </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23">
+        <v>16</v>
+      </c>
+      <c r="H23">
         <v>1440</v>
       </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24">
+        <v>17</v>
+      </c>
+      <c r="H24">
         <v>1440</v>
       </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25">
+        <v>18</v>
+      </c>
+      <c r="H25">
         <v>1440</v>
       </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
         <v>12</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26">
+        <v>19</v>
+      </c>
+      <c r="H26">
         <v>1440</v>
       </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
         <v>12</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27">
+        <v>20</v>
+      </c>
+      <c r="H27">
         <v>1440</v>
       </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
         <v>22</v>
       </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28">
+      <c r="H28">
         <v>0</v>
       </c>
-      <c r="L28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
       </c>
       <c r="F29" t="s">
         <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29">
+        <v>22</v>
+      </c>
+      <c r="H29">
         <v>0</v>
       </c>
-      <c r="L29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
         <v>22</v>
       </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30">
+      <c r="H30">
         <v>30</v>
       </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
       </c>
       <c r="F31" t="s">
         <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31">
+        <v>22</v>
+      </c>
+      <c r="H31">
         <v>30</v>
       </c>
-      <c r="L31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
         <v>22</v>
       </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32">
+      <c r="H32">
         <v>90</v>
       </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
       </c>
       <c r="F33" t="s">
         <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33">
+        <v>22</v>
+      </c>
+      <c r="H33">
         <v>90</v>
       </c>
-      <c r="L33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
         <v>22</v>
       </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34">
+      <c r="H34">
         <v>180</v>
       </c>
-      <c r="L34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
       </c>
       <c r="F35" t="s">
         <v>24</v>
       </c>
       <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35">
+        <v>22</v>
+      </c>
+      <c r="H35">
         <v>180</v>
       </c>
-      <c r="L35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
         <v>22</v>
       </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36">
+      <c r="H36">
         <v>1440</v>
       </c>
-      <c r="L36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
       </c>
       <c r="F37" t="s">
         <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37">
+        <v>22</v>
+      </c>
+      <c r="H37">
         <v>1440</v>
       </c>
-      <c r="L37">
+      <c r="I37">
         <v>2</v>
       </c>
     </row>
